--- a/public/document/file_mau.xlsx
+++ b/public/document/file_mau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lethanhhung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73460152-DD0C-3D4E-AEA6-7B43BBA4C2B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6A0BFC-FA3C-B24B-9946-2D1B0FF414A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="8240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Mã ứng viên</t>
   </si>
@@ -129,15 +129,6 @@
     <t>permanentaddress</t>
   </si>
   <si>
-    <t>Họ và tên đệm</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>Mức độ tiềm năng (Không tiềm năng, Cần quan tâm, Tiềm năng, Rất tiềm năng)</t>
   </si>
   <si>
@@ -196,6 +187,12 @@
   </si>
   <si>
     <t>Chiều cao (số)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
   </si>
 </sst>
 </file>
@@ -205,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +248,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -337,6 +342,8 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -618,168 +625,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="18" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" customWidth="1"/>
-    <col min="21" max="21" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="18" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" customWidth="1"/>
+    <col min="20" max="20" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="N2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="12"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -787,26 +788,25 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="12"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -814,26 +814,25 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="11"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -841,22 +840,21 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="9"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -865,23 +863,22 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="11"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -889,23 +886,22 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="11"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -913,23 +909,22 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="11"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -937,23 +932,22 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -961,23 +955,22 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="11"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -985,23 +978,22 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="11"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1009,23 +1001,22 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="11"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1033,23 +1024,22 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="11"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1057,23 +1047,22 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="11"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1081,23 +1070,22 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="11"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -1105,23 +1093,22 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:21" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="11"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1129,7 +1116,6 @@
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1140,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1149,21 +1135,21 @@
     <col min="2" max="3" width="11.5" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1171,13 +1157,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1198,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1209,27 +1195,27 @@
     <col min="2" max="3" width="11.5" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1237,19 +1223,11 @@
         <v>15</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4"/>
-      <c r="C4"/>
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1260,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,21 +1249,21 @@
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
+      <c r="E1" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">

--- a/public/document/file_mau.xlsx
+++ b/public/document/file_mau.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lethanhhung/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wellcome\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6A0BFC-FA3C-B24B-9946-2D1B0FF414A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +26,308 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Wellcome</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">nhập mm/dd/yyyy
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập số</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập số</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập mm/dd/yyyy</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập thuần số</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập thuần số</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập số mã UV tương ứng có file CV đính kèm</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Wellcome</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">nhập mm/dd/yyyy
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập mm/dd/yyyy</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Wellcome</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập mm/dd/yyyy</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập mm/dd/yyyy</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Wellcome</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nhập thuần số</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Mã ứng viên</t>
   </si>
@@ -132,9 +431,6 @@
     <t>Mức độ tiềm năng (Không tiềm năng, Cần quan tâm, Tiềm năng, Rất tiềm năng)</t>
   </si>
   <si>
-    <t>mã ứng viên</t>
-  </si>
-  <si>
     <t>Từ</t>
   </si>
   <si>
@@ -159,9 +455,6 @@
     <t>Mức lương mong muốn (number)</t>
   </si>
   <si>
-    <t>đến</t>
-  </si>
-  <si>
     <t>Cơ sở đào tạo</t>
   </si>
   <si>
@@ -193,16 +486,49 @@
   </si>
   <si>
     <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>MapCode( file CV)</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV/ Trách nghiệm </t>
+  </si>
+  <si>
+    <t>scope of work</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,13 +582,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -274,11 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -287,23 +653,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -326,12 +680,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -343,7 +691,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,657 +1017,707 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="18" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" customWidth="1"/>
-    <col min="20" max="20" width="26.1640625" customWidth="1"/>
+    <col min="1" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="12" customWidth="1"/>
+    <col min="5" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="12" customWidth="1"/>
+    <col min="11" max="22" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="V2" s="18"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.5" style="18"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="12"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="F2" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.5" style="18"/>
+    <col min="2" max="3" width="11.42578125" style="12"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>40</v>
+      <c r="D2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K7" s="7"/>
+      <c r="B2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>